--- a/medicine/Enfance/Tintin-Lutin/Tintin-Lutin.xlsx
+++ b/medicine/Enfance/Tintin-Lutin/Tintin-Lutin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tintin-Lutin est un personnage créé par l'illustrateur français Benjamin Rabier et Fred Isly et dont l'album illustré fut publié en 1898. D'abord lancé dans le journal Le Rire, ce fut un des premiers succès de Benjamin Rabier, qui lança sa carrière d'illustrateur d'albums de jeunesse.
 </t>
@@ -513,10 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Il s'agit d'un album illustré racontant plusieurs histoires courtes de Tintin-Lutin, surnom de Martin.
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un album illustré racontant plusieurs histoires courtes de Tintin-Lutin, surnom de Martin.
 Il est une des sources d'influence d'Hergé et lui inspira peut-être le personnage de Tintin.
-Le dessinateur Benjamin Rabier, collaborateur du journal Le Rire, invente le personnage de Tintin-Lutin[1] qu'il publie à partir de 1897. Rabier y met notamment en images un voyage de Tintin-Lutin à moto jusqu'à Moscou.
+Le dessinateur Benjamin Rabier, collaborateur du journal Le Rire, invente le personnage de Tintin-Lutin qu'il publie à partir de 1897. Rabier y met notamment en images un voyage de Tintin-Lutin à moto jusqu'à Moscou.
 Les premiers vers d'introductions qui présentent le personnage :
 Au Lecteur
 Vous regardez tout en haut de la page
@@ -528,8 +545,43 @@
 Un diablotin remuant et peu sage ;
 Du reste, ça se lit sur son visage.
 — Benjamin Rabier &amp; Fred Isly
-Histoires de l'album
-L'album comprend un prologue « Au Lecteur », 13 histoires courtes et un épilogue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tintin-Lutin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tintin-Lutin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description de l'œuvre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoires de l'album</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'album comprend un prologue « Au Lecteur », 13 histoires courtes et un épilogue.
 Le Paysagiste, p.7
 Le Cochon, p.10
 Le Hérisson, p.13
